--- a/src/semeio/fmudesign/examples/fmudesign_ex_montecarlo.xlsx
+++ b/src/semeio/fmudesign/examples/fmudesign_ex_montecarlo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\src\semeio\fmudesign\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9825592-5952-4AB4-AD22-C7C9672DC6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB3ECF-597F-4D14-932C-14F594BD30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="defaultvalues" sheetId="3" r:id="rId3"/>
     <sheet name="correlations" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -158,7 +158,7 @@
  - beta(a, b, low, high)
  - pert(low, mode, high)
  - pert(low, mode, high, scale)
- - loguniform(low, high) [equivalent to exp(uniform(low, high))]
+ - loguniform(low, high) [equivalent to exp(uniform(log(low), log(high)))]
 </t>
         </r>
       </text>
@@ -856,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -980,15 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2089,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,58 +2105,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="67" t="s">
         <v>24</v>
       </c>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="3"/>
@@ -2183,7 +2178,7 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="14">
@@ -2203,11 +2198,11 @@
       <c r="L3" s="22"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="61"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="75" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="25">
@@ -2235,13 +2230,13 @@
       <c r="L4" s="33"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="60" t="s">
         <v>58</v>
       </c>
       <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="35"/>
       <c r="C5" s="56"/>
       <c r="D5" s="36" t="s">
@@ -2267,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="42"/>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="59" t="s">
         <v>58</v>
       </c>
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="35"/>
       <c r="C6" s="56"/>
       <c r="D6" s="36" t="s">
@@ -2295,13 +2290,13 @@
       <c r="L6" s="55"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="59" t="s">
         <v>58</v>
       </c>
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="35"/>
       <c r="C7" s="56"/>
       <c r="D7" s="36" t="s">
@@ -2325,13 +2320,13 @@
       </c>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="59" t="s">
         <v>58</v>
       </c>
       <c r="P7" s="39"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="35"/>
       <c r="C8" s="56"/>
       <c r="D8" s="36" t="s">
@@ -2353,13 +2348,13 @@
       <c r="L8" s="55"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="62" t="s">
+      <c r="O8" s="59" t="s">
         <v>58</v>
       </c>
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="35"/>
       <c r="C9" s="56"/>
       <c r="D9" s="36" t="s">
@@ -2381,13 +2376,13 @@
       <c r="L9" s="55"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="59" t="s">
         <v>58</v>
       </c>
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="35"/>
       <c r="C10" s="56"/>
       <c r="D10" s="36" t="s">
@@ -2413,13 +2408,13 @@
         <v>1</v>
       </c>
       <c r="N10" s="42"/>
-      <c r="O10" s="62" t="s">
+      <c r="O10" s="59" t="s">
         <v>58</v>
       </c>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="35"/>
       <c r="C11" s="56"/>
       <c r="D11" s="36" t="s">
@@ -2443,13 +2438,13 @@
       </c>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="62" t="s">
+      <c r="O11" s="59" t="s">
         <v>58</v>
       </c>
       <c r="P11" s="39"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="35"/>
       <c r="C12" s="56"/>
       <c r="D12" s="36" t="s">
@@ -2475,13 +2470,13 @@
         <v>25</v>
       </c>
       <c r="N12" s="42"/>
-      <c r="O12" s="62" t="s">
+      <c r="O12" s="59" t="s">
         <v>58</v>
       </c>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="43"/>
       <c r="C13" s="44"/>
       <c r="D13" s="45" t="s">
@@ -2503,7 +2498,7 @@
       <c r="L13" s="51"/>
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
-      <c r="O13" s="81" t="s">
+      <c r="O13" s="78" t="s">
         <v>58</v>
       </c>
       <c r="P13" s="48"/>
@@ -2627,9 +2622,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2648,11 +2643,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
       <c r="D1" t="s">
@@ -2681,279 +2675,264 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="57">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="57">
         <v>1</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="57">
         <v>1</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="57">
         <v>1</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="57">
         <v>1</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="57">
         <v>1</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="57">
         <v>1</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="57">
         <v>1</v>
       </c>
-      <c r="K10" s="60"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="57">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/semeio/fmudesign/examples/fmudesign_ex_montecarlo.xlsx
+++ b/src/semeio/fmudesign/examples/fmudesign_ex_montecarlo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\src\semeio\fmudesign\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LGAZ/semeio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB3ECF-597F-4D14-932C-14F594BD30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4DF84E-5F5D-5045-A375-59298AA99378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65780" yWindow="5960" windowWidth="39160" windowHeight="22160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="defaultvalues" sheetId="3" r:id="rId3"/>
     <sheet name="correlations" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -149,16 +149,149 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">These are the distributions available.
- - normal(mean, std)
- - normal(mean, std, trunc_low, trunc_high)
- - uniform(low, high)
- - triangular(low, mode, high)
- - lognormal(mean, std) [equivalent to exp(normal(mean, std))]
- - beta(a, b)
- - beta(a, b, low, high)
- - pert(low, mode, high)
- - pert(low, mode, high, scale)
- - loguniform(low, high) [equivalent to exp(uniform(log(low), log(high)))]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - normal(mean, std)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - normal(mean, std, trunc_low, trunc_high)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - uniform(low, high)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - triangular(low, mode, high)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - lognormal(mean, std) [equivalent to exp(normal(mean, std))]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - beta(a, b)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - beta(a, b, low, high)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - pert(low, mode, high)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - pert(low, mode, high, scale)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - loguniform(low, high) [equivalent to exp(uniform(log(low), log(high)))]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - discrete([value1, value2, ..., value_n],[weight1, weight2, ..., weight_n])
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - constant(value)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -168,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
   <si>
     <t>designtype</t>
   </si>
@@ -254,9 +387,6 @@
     <t>ref</t>
   </si>
   <si>
-    <t>montecarlo</t>
-  </si>
-  <si>
     <t>dist</t>
   </si>
   <si>
@@ -345,6 +475,33 @@
   </si>
   <si>
     <t>correlations</t>
+  </si>
+  <si>
+    <t>DISCRETE</t>
+  </si>
+  <si>
+    <t>discrete</t>
+  </si>
+  <si>
+    <t>CONSTANT</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>montecarlo1</t>
+  </si>
+  <si>
+    <t>montecarlo2</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>defaultvalue</t>
+  </si>
+  <si>
+    <t>0.35,0.25,0.4</t>
   </si>
 </sst>
 </file>
@@ -394,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -725,30 +882,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -849,6 +982,19 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,23 +1101,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -988,8 +1131,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1015,15 +1158,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,8 +1500,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>405164</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808060</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
@@ -1409,8 +1557,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>405164</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808060</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
@@ -1466,8 +1614,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>405164</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808060</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
@@ -1523,8 +1671,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>405164</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808060</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
@@ -1580,8 +1728,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>405164</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808060</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
@@ -2017,14 +2165,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="77.85546875" customWidth="1"/>
+    <col min="3" max="3" width="77.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2048,7 +2196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2212,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2082,81 +2230,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="2" customWidth="1"/>
-    <col min="11" max="14" width="11.85546875" style="2" customWidth="1"/>
-    <col min="15" max="17" width="11.85546875" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" customWidth="1"/>
+    <col min="6" max="8" width="11.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="2" customWidth="1"/>
+    <col min="12" max="14" width="11.83203125" style="2" customWidth="1"/>
+    <col min="15" max="17" width="11.83203125" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="72" t="s">
+      <c r="O1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="64" t="s">
         <v>24</v>
       </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="3"/>
@@ -2177,8 +2326,8 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="14">
@@ -2198,28 +2347,28 @@
       <c r="L3" s="22"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="58"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="24"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>28</v>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="25">
         <v>200</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="29"/>
       <c r="I4" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="31">
         <v>0</v>
@@ -2230,24 +2379,24 @@
       <c r="L4" s="33"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="60" t="s">
-        <v>58</v>
+      <c r="O4" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="P4" s="30"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="56"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="38"/>
       <c r="I5" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="40">
         <v>0</v>
@@ -2255,31 +2404,31 @@
       <c r="K5" s="41">
         <v>1</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="52">
         <v>-1</v>
       </c>
       <c r="M5" s="42">
         <v>1</v>
       </c>
       <c r="N5" s="42"/>
-      <c r="O5" s="59" t="s">
-        <v>58</v>
+      <c r="O5" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="P5" s="39"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="73"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="56"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="38"/>
       <c r="I6" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="40">
         <v>-2</v>
@@ -2287,27 +2436,27 @@
       <c r="K6" s="41">
         <v>2</v>
       </c>
-      <c r="L6" s="55"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="59" t="s">
-        <v>58</v>
+      <c r="O6" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="P6" s="39"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="56"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="40">
         <v>-5</v>
@@ -2315,29 +2464,29 @@
       <c r="K7" s="41">
         <v>2</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="52">
         <v>5</v>
       </c>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
-      <c r="O7" s="59" t="s">
-        <v>58</v>
+      <c r="O7" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="P7" s="39"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
       <c r="B8" s="35"/>
-      <c r="C8" s="56"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="40">
         <v>0</v>
@@ -2345,27 +2494,27 @@
       <c r="K8" s="41">
         <v>1</v>
       </c>
-      <c r="L8" s="55"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="59" t="s">
-        <v>58</v>
+      <c r="O8" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="P8" s="39"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="56"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="40">
         <v>2</v>
@@ -2373,27 +2522,27 @@
       <c r="K9" s="41">
         <v>5</v>
       </c>
-      <c r="L9" s="55"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
-      <c r="O9" s="59" t="s">
-        <v>58</v>
+      <c r="O9" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="P9" s="39"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="73"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="56"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="38"/>
       <c r="I10" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="40">
         <v>4</v>
@@ -2401,31 +2550,31 @@
       <c r="K10" s="41">
         <v>2</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="52">
         <v>-3</v>
       </c>
       <c r="M10" s="42">
         <v>1</v>
       </c>
       <c r="N10" s="42"/>
-      <c r="O10" s="59" t="s">
-        <v>58</v>
+      <c r="O10" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="P10" s="39"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
       <c r="B11" s="35"/>
-      <c r="C11" s="56"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="38"/>
       <c r="I11" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="40">
         <v>-3</v>
@@ -2433,29 +2582,29 @@
       <c r="K11" s="41">
         <v>1</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="52">
         <v>4</v>
       </c>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="59" t="s">
-        <v>58</v>
+      <c r="O11" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="P11" s="39"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="73"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="56"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="38"/>
       <c r="I12" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="40">
         <v>-3</v>
@@ -2463,45 +2612,107 @@
       <c r="K12" s="41">
         <v>1</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="52">
         <v>4</v>
       </c>
       <c r="M12" s="42">
         <v>25</v>
       </c>
       <c r="N12" s="42"/>
-      <c r="O12" s="59" t="s">
-        <v>58</v>
+      <c r="O12" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="P12" s="39"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="46"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="53"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="49">
+      <c r="H13" s="44"/>
+      <c r="I13" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="46">
         <v>1</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="47">
         <v>10</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="78" t="s">
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="45"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="75">
+        <v>200</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="48"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="43">
+        <v>1</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="43">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2513,104 +2724,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2628,309 +2855,309 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="54">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="54">
+        <v>1</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="54">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="54">
+        <v>1</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="C7" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="54">
+        <v>1</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="54">
+        <v>1</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="54">
+        <v>1</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="54">
+        <v>1</v>
+      </c>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="57">
-        <v>1</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="57">
-        <v>1</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="57">
-        <v>1</v>
-      </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="57">
-        <v>1</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="57">
-        <v>1</v>
-      </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="57">
-        <v>1</v>
-      </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="57">
-        <v>1</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="57">
-        <v>1</v>
-      </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="57">
-        <v>1</v>
-      </c>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="57">
+      <c r="B11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="54">
         <v>1</v>
       </c>
     </row>

--- a/src/semeio/fmudesign/examples/fmudesign_ex_montecarlo.xlsx
+++ b/src/semeio/fmudesign/examples/fmudesign_ex_montecarlo.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LGAZ/semeio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LGAZ/semeio/src/semeio/fmudesign/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A7416-3FBE-2246-A5DA-4D0C976B3143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4216BAEE-72EE-9E43-96BF-FBE6EBBCCBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65780" yWindow="5960" windowWidth="39160" windowHeight="22160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="620" windowWidth="43320" windowHeight="31380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
     <sheet name="designinput" sheetId="2" r:id="rId2"/>
     <sheet name="defaultvalues" sheetId="3" r:id="rId3"/>
-    <sheet name="correlations" sheetId="4" r:id="rId4"/>
+    <sheet name="corr_owc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -138,7 +138,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - normal(mean, std)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>norm</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">al(mean, std)
 </t>
         </r>
         <r>
@@ -170,7 +191,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - normal(mean, std, trunc_low, trunc_high)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>norm</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">al(mean, std, trunc_low, trunc_high)
 </t>
         </r>
         <r>
@@ -181,7 +223,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - uniform(min, max)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>unif</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">orm(min, max)
 </t>
         </r>
         <r>
@@ -192,7 +255,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - triangular(min, mode, max)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>triang</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ular(min, mode, max)
 </t>
         </r>
         <r>
@@ -203,7 +287,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - lognormal(mean, std) [equivalent to exp(normal(mean, std))]
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>lognorm</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">al(mean, std) [equivalent to exp(normal(mean, std))]
 </t>
         </r>
         <r>
@@ -214,7 +319,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - beta(a, b)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>beta</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(a, b)
 </t>
         </r>
         <r>
@@ -225,7 +351,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - beta(a, b, min, max)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>beta</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(a, b, min, max)
 </t>
         </r>
         <r>
@@ -236,7 +383,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - pert(min, mode, max)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pert</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(min, mode, max)
 </t>
         </r>
         <r>
@@ -247,7 +415,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - pert(min, mode, max, scale)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pert</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(min, mode, max, scale)
 </t>
         </r>
         <r>
@@ -258,7 +447,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - loguniform(min, max) [equivalent to exp(uniform(log(low), log(high)))]
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>logunif</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">orm(low, high) [equivalent to exp(uniform(log(low), log(high)))]
 </t>
         </r>
         <r>
@@ -269,7 +479,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - discrete([value1, value2, ..., value_n],[weight1, weight2, ..., weight_n])
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>disc</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">rete([value1, value2, ..., value_n],[weight1, weight2, ..., weight_n])
 </t>
         </r>
         <r>
@@ -280,7 +511,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - constant(value)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>const</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ant(value)
 </t>
         </r>
         <r>
@@ -291,7 +543,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - uniform_p10_p90(low,high)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>normal_p10_p90</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(low,high)
 </t>
         </r>
         <r>
@@ -302,7 +575,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - normal_p10_p90(low,high)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>uniform_p10_p90</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(low,high)
 </t>
         </r>
         <r>
@@ -313,7 +607,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - triangular_p10_p90(low,mode,high)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>triangular_p10_p90</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(low,mode,high)
 </t>
         </r>
         <r>
@@ -324,7 +639,28 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - pert_p10_p90(low,mode,high)
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pert_p10_p90</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(low,mode,high)
 </t>
         </r>
         <r>
@@ -335,8 +671,26 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - pert_p10_p90(low,mode,high,scale)
-</t>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>pert_p10_p90</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(low,mode,high,scale) </t>
         </r>
         <r>
           <rPr>
@@ -348,6 +702,38 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bold</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> marks the minimum name.</t>
         </r>
       </text>
     </comment>
@@ -356,7 +742,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>designtype</t>
   </si>
@@ -442,155 +828,122 @@
     <t>ref</t>
   </si>
   <si>
+    <t>montecarlo1</t>
+  </si>
+  <si>
     <t>dist</t>
   </si>
   <si>
-    <t>NORMAL</t>
+    <t>FAULT_POSITION</t>
+  </si>
+  <si>
+    <t>discrete</t>
+  </si>
+  <si>
+    <t>-1,0,1</t>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>DC_MODEL</t>
+  </si>
+  <si>
+    <t>pess,base,opt</t>
+  </si>
+  <si>
+    <t>OWC1</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>corr_owc</t>
+  </si>
+  <si>
+    <t>OWC2</t>
+  </si>
+  <si>
+    <t>triangular</t>
+  </si>
+  <si>
+    <t>OWC3</t>
+  </si>
+  <si>
+    <t>pert</t>
+  </si>
+  <si>
+    <t>MULTZ_ILE</t>
+  </si>
+  <si>
+    <t>loguniform</t>
+  </si>
+  <si>
+    <t>PARAM1</t>
+  </si>
+  <si>
+    <t>lognorm</t>
+  </si>
+  <si>
+    <t>PARAM2</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
-    <t>UNIFORM</t>
-  </si>
-  <si>
-    <t>uniform</t>
+    <t>PARAM3</t>
+  </si>
+  <si>
+    <t>PARAM4</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>montecarlo2</t>
   </si>
   <si>
     <t>default_value</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>TRUNCATEDNORMAL</t>
-  </si>
-  <si>
-    <t>TRIANGULAR</t>
-  </si>
-  <si>
-    <t>triangular</t>
-  </si>
-  <si>
-    <t>LOGNORMAL</t>
-  </si>
-  <si>
-    <t>lognormal</t>
-  </si>
-  <si>
-    <t>BETA</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>SCALEDBETA</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>PERT</t>
-  </si>
-  <si>
-    <t>pert</t>
-  </si>
-  <si>
-    <t>SHARP_PERT</t>
-  </si>
-  <si>
-    <t>LOGUNIFORM</t>
-  </si>
-  <si>
-    <t>loguniform</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>correlations</t>
-  </si>
-  <si>
-    <t>DISCRETE</t>
-  </si>
-  <si>
-    <t>discrete</t>
-  </si>
-  <si>
-    <t>CONSTANT</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>montecarlo1</t>
-  </si>
-  <si>
-    <t>montecarlo2</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>defaultvalue</t>
-  </si>
-  <si>
-    <t>0.35,0.25,0.4</t>
+    <t>RMS_SEED</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>montecarlo3</t>
+  </si>
+  <si>
+    <t>PARAM5</t>
+  </si>
+  <si>
+    <t>PARAM6</t>
+  </si>
+  <si>
+    <t>PARAM7</t>
+  </si>
+  <si>
+    <t>PARAM8</t>
+  </si>
+  <si>
+    <t>normal_p10_p90</t>
   </si>
   <si>
     <t>uniform_p10_p90</t>
   </si>
   <si>
-    <t>normal_p10_p90</t>
-  </si>
-  <si>
     <t>triangular_p10_p90</t>
   </si>
   <si>
     <t>pert_p10_p90</t>
-  </si>
-  <si>
-    <t>UNIFORM_P10_P90</t>
-  </si>
-  <si>
-    <t>NORMAL_P10_P90</t>
-  </si>
-  <si>
-    <t>TRIANGULAR_P10_P90</t>
-  </si>
-  <si>
-    <t>PERT_P10_P90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  montecarlo3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -606,6 +959,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -617,7 +983,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -633,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -651,9 +1017,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -662,9 +1026,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -677,9 +1039,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -690,9 +1050,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -703,9 +1061,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -718,9 +1074,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -731,9 +1085,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -746,9 +1098,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -759,9 +1109,20 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -774,7 +1135,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -783,7 +1146,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -796,7 +1161,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,7 +1174,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -818,7 +1187,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -831,7 +1202,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -842,7 +1215,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -855,7 +1230,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -866,7 +1243,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -950,10 +1329,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
         <color auto="1"/>
       </right>
       <top/>
@@ -972,31 +1410,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right/>
@@ -1007,10 +1421,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -1020,136 +1434,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1160,190 +1450,181 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,7 +1668,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1441,13 +1722,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -1459,7 +1740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12092400" cy="12699000"/>
+          <a:ext cx="12078000" cy="12729240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,10 +1748,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1498,13 +1776,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
@@ -1516,7 +1794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12092400" cy="12699000"/>
+          <a:ext cx="12078000" cy="12729240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,10 +1802,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1555,13 +1830,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
@@ -1573,7 +1848,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12092400" cy="12699000"/>
+          <a:ext cx="12078000" cy="12729240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1581,10 +1856,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1612,13 +1884,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
@@ -1630,7 +1902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12092400" cy="12699000"/>
+          <a:ext cx="12078000" cy="12729240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1638,10 +1910,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1674,13 +1943,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>326336</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:colOff>518806</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>5887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
@@ -1692,7 +1961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11804040" cy="12699000"/>
+          <a:ext cx="11814120" cy="12835800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,10 +1969,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1731,13 +1997,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>326336</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:colOff>518806</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>5887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
@@ -1749,7 +2015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11804040" cy="12699000"/>
+          <a:ext cx="11814120" cy="12835800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,10 +2023,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1788,13 +2051,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>326336</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:colOff>518806</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>5887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
@@ -1806,7 +2069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11804040" cy="12699000"/>
+          <a:ext cx="11814120" cy="12835800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1814,10 +2077,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1845,13 +2105,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>326336</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:colOff>518806</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>5887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
@@ -1863,7 +2123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11804040" cy="12699000"/>
+          <a:ext cx="11814120" cy="12835800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1871,10 +2131,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1902,13 +2159,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>326336</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:colOff>518806</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>5887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
@@ -1920,7 +2177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11804040" cy="12699000"/>
+          <a:ext cx="11814120" cy="12835800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1928,10 +2185,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -1964,13 +2218,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>246450</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:colOff>246240</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="_x005F_x0000_t202" hidden="1">
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
@@ -1982,7 +2236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11790000" cy="12699000"/>
+          <a:ext cx="11758680" cy="13094640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,10 +2244,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="9360">
           <a:miter/>
         </a:ln>
       </xdr:spPr>
@@ -2394,8 +2645,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -2403,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2414,10 +2665,10 @@
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
     <col min="6" max="8" width="11.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="33.1640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" style="2" customWidth="1"/>
     <col min="12" max="14" width="11.83203125" style="2" customWidth="1"/>
@@ -2427,583 +2678,529 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="24"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="41">
+        <v>200</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="46"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="58"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="59">
+        <v>2640</v>
+      </c>
+      <c r="K6" s="60">
+        <v>2660</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="58"/>
+    </row>
+    <row r="7" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="59">
+        <v>2740</v>
+      </c>
+      <c r="K7" s="60">
+        <v>2750</v>
+      </c>
+      <c r="L7" s="61">
+        <v>2765</v>
+      </c>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="58"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="59">
+        <v>2840</v>
+      </c>
+      <c r="K8" s="60">
+        <v>2850</v>
+      </c>
+      <c r="L8" s="61">
+        <v>2855</v>
+      </c>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="58"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="58"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K10" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="58"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="59">
+        <v>200</v>
+      </c>
+      <c r="K11" s="60">
+        <v>10</v>
+      </c>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="58"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="61">
+        <v>0</v>
+      </c>
+      <c r="M12" s="62">
+        <v>1</v>
+      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="58"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="67">
+        <v>10</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="66"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="72">
+        <v>200</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+    </row>
+    <row r="15" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="53">
+        <v>200</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="59">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="60">
+        <v>1</v>
+      </c>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="58"/>
+    </row>
+    <row r="16" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="25">
-        <v>200</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="31">
-        <v>0</v>
-      </c>
-      <c r="K4" s="32">
+      <c r="J16" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="58"/>
+    </row>
+    <row r="17" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="58"/>
+    </row>
+    <row r="18" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="59">
         <v>1</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="30"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0</v>
-      </c>
-      <c r="K5" s="41">
-        <v>1</v>
-      </c>
-      <c r="L5" s="52">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="42">
-        <v>1</v>
-      </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="40">
-        <v>-2</v>
-      </c>
-      <c r="K6" s="41">
-        <v>2</v>
-      </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="40">
-        <v>-5</v>
-      </c>
-      <c r="K7" s="41">
-        <v>2</v>
-      </c>
-      <c r="L7" s="52">
-        <v>5</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="39"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="40">
-        <v>0</v>
-      </c>
-      <c r="K8" s="41">
-        <v>1</v>
-      </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="40">
-        <v>2</v>
-      </c>
-      <c r="K9" s="41">
-        <v>5</v>
-      </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="40">
-        <v>4</v>
-      </c>
-      <c r="K10" s="41">
-        <v>2</v>
-      </c>
-      <c r="L10" s="52">
-        <v>-3</v>
-      </c>
-      <c r="M10" s="42">
-        <v>1</v>
-      </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="39"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="40">
-        <v>-3</v>
-      </c>
-      <c r="K11" s="41">
-        <v>1</v>
-      </c>
-      <c r="L11" s="52">
-        <v>4</v>
-      </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" s="39"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="40">
-        <v>-3</v>
-      </c>
-      <c r="K12" s="41">
-        <v>1</v>
-      </c>
-      <c r="L12" s="52">
-        <v>4</v>
-      </c>
-      <c r="M12" s="42">
-        <v>25</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="39"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="46">
-        <v>1</v>
-      </c>
-      <c r="K13" s="41">
+      <c r="K18" s="60">
+        <v>3</v>
+      </c>
+      <c r="L18" s="61">
         <v>10</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="75">
-        <v>200</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="86"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="86"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="43">
-        <v>1</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="43">
-        <v>1</v>
-      </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="86"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="43">
-        <v>500</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="46">
-        <v>0</v>
-      </c>
-      <c r="K16" s="47">
-        <v>1</v>
-      </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="85"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="46">
-        <v>-0.5</v>
-      </c>
-      <c r="K17" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="85"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="48">
-        <v>0.9</v>
-      </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="85"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="46">
-        <v>10</v>
-      </c>
-      <c r="K19" s="47">
-        <v>50</v>
-      </c>
-      <c r="L19" s="48">
-        <v>90</v>
-      </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="85"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="58"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -3011,15 +3208,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3027,21 +3224,21 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>33</v>
+      <c r="B1" s="75" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -3049,10 +3246,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3060,68 +3257,68 @@
         <v>36</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2850</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
+      <c r="B9" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
+      <c r="B10" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>1.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -3129,7 +3326,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -3137,31 +3334,23 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3171,317 +3360,177 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="54">
+        <v>36</v>
+      </c>
+      <c r="B2" s="76">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="54">
+        <v>39</v>
+      </c>
+      <c r="B3" s="76">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="76">
         <v>1</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="54">
+        <v>41</v>
+      </c>
+      <c r="B4" s="76">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="76">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="76">
         <v>1</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="54">
-        <v>1</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="54">
-        <v>1</v>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="54">
-        <v>1</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="54">
-        <v>1</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="54">
-        <v>1</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="54">
-        <v>1</v>
-      </c>
-      <c r="K10" s="54"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="54">
-        <v>1</v>
-      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/semeio/fmudesign/examples/fmudesign_ex_montecarlo.xlsx
+++ b/src/semeio/fmudesign/examples/fmudesign_ex_montecarlo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LGAZ/semeio/src/semeio/fmudesign/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4216BAEE-72EE-9E43-96BF-FBE6EBBCCBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673E8D27-B7C0-8747-B672-10EBE2B7D661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="620" windowWidth="43320" windowHeight="31380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -330,6 +330,84 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t>lognorm</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>al(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>mean, std, trunc_low, trunc_high</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>) [</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>trunc_low, trunc_high</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> in exp-space]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t>beta</t>
         </r>
         <r>
@@ -742,7 +820,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>designtype</t>
   </si>
@@ -937,13 +1015,16 @@
   </si>
   <si>
     <t>pert_p10_p90</t>
+  </si>
+  <si>
+    <t>PARAM0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -968,6 +1049,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2654,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2951,7 +3038,7 @@
       <c r="B10" s="53"/>
       <c r="C10" s="54"/>
       <c r="D10" s="55" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="53"/>
@@ -2961,13 +3048,17 @@
         <v>46</v>
       </c>
       <c r="J10" s="59">
-        <v>4.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="K10" s="60">
-        <v>0.8</v>
-      </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="61">
+        <v>10</v>
+      </c>
+      <c r="M10" s="62">
+        <v>100</v>
+      </c>
       <c r="N10" s="62"/>
       <c r="O10" s="63"/>
       <c r="P10" s="58"/>
@@ -2977,20 +3068,20 @@
       <c r="B11" s="53"/>
       <c r="C11" s="54"/>
       <c r="D11" s="55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
       <c r="H11" s="57"/>
       <c r="I11" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="59">
-        <v>200</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K11" s="60">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="62"/>
@@ -3003,7 +3094,7 @@
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
       <c r="D12" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="53"/>
@@ -3013,17 +3104,13 @@
         <v>48</v>
       </c>
       <c r="J12" s="59">
-        <v>0.5</v>
+        <v>200</v>
       </c>
       <c r="K12" s="60">
-        <v>0.3</v>
-      </c>
-      <c r="L12" s="61">
-        <v>0</v>
-      </c>
-      <c r="M12" s="62">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="63"/>
       <c r="P12" s="58"/>
@@ -3033,108 +3120,112 @@
       <c r="B13" s="53"/>
       <c r="C13" s="54"/>
       <c r="D13" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="61">
+        <v>0</v>
+      </c>
+      <c r="M13" s="62">
+        <v>1</v>
+      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="58"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="67">
-        <v>10</v>
-      </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="66"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="72">
-        <v>200</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="64"/>
       <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="79" t="s">
+      <c r="H14" s="65"/>
+      <c r="I14" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="67">
+        <v>10</v>
+      </c>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="66"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="72">
+        <v>200</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J15" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K15" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-    </row>
-    <row r="15" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+    </row>
+    <row r="16" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B16" s="53">
         <v>200</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C16" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D16" s="55" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="59">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="60">
-        <v>1</v>
-      </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="58"/>
-    </row>
-    <row r="16" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55" t="s">
-        <v>58</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="57"/>
       <c r="I16" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="59">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="60">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L16" s="61"/>
       <c r="M16" s="62"/>
@@ -3147,24 +3238,22 @@
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
       <c r="D17" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="57"/>
       <c r="I17" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="59">
         <v>0.1</v>
       </c>
       <c r="K17" s="60">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="61">
         <v>0.9</v>
       </c>
+      <c r="L17" s="61"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="63"/>
@@ -3175,28 +3264,56 @@
       <c r="B18" s="53"/>
       <c r="C18" s="54"/>
       <c r="D18" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="57"/>
       <c r="I18" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="59">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="60">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="61">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="O18" s="63"/>
       <c r="P18" s="58"/>
+    </row>
+    <row r="19" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="59">
+        <v>1</v>
+      </c>
+      <c r="K19" s="60">
+        <v>3</v>
+      </c>
+      <c r="L19" s="61">
+        <v>10</v>
+      </c>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3208,10 +3325,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3286,65 +3403,73 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>0.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
     </row>
